--- a/文档/元数据 含自动提取标示 1228.xlsx
+++ b/文档/元数据 含自动提取标示 1228.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="影像元数据" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="96">
   <si>
     <t>中文名称</t>
   </si>
@@ -343,6 +343,14 @@
   </si>
   <si>
     <t>数据日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2031,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2280,6 +2288,11 @@
         <v>81</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2288,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2513,6 +2526,11 @@
         <v>88</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2652,6 +2670,57 @@
         <v>93</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
